--- a/biology/Médecine/André_Soubiran/André_Soubiran.xlsx
+++ b/biology/Médecine/André_Soubiran/André_Soubiran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Soubiran</t>
+          <t>André_Soubiran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Soubiran, né le 29 juillet 1910 à Paris et mort dans la même ville le 29 juillet 1999[1],[2], est un médecin et écrivain français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Soubiran, né le 29 juillet 1910 à Paris et mort dans la même ville le 29 juillet 1999 est un médecin et écrivain français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Soubiran</t>
+          <t>André_Soubiran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Paris, André Soubiran grandit cependant à Gimont dans le Gers, ville d'origine de sa mère, durant la Première Guerre mondiale, alors que son père officier participe à l'expédition de Salonique, où il meurt en 1918[3].
-André Soubiran fait ses études à la faculté de médecine de Toulouse puis à Paris où il soutient en 1935 sa thèse de médecine intitulée Avicenne, prince des médecins, sa vie et sa doctrine[4].
-Après sa participation à la bataille de France, il se réfugie en 1940 de nouveau à Gimont, où il écrit son journal de guerre J'étais médecin avec les chars. Il y commence également sa série Les Hommes en blanc, livre qui connaît un grand succès[3].
-Médecin à l'écoute de ses pairs, il fonde en 1952 l'Automobile club médical de France (ACMF), association destinée à protéger la qualité de vie des professionnels de santé[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Paris, André Soubiran grandit cependant à Gimont dans le Gers, ville d'origine de sa mère, durant la Première Guerre mondiale, alors que son père officier participe à l'expédition de Salonique, où il meurt en 1918.
+André Soubiran fait ses études à la faculté de médecine de Toulouse puis à Paris où il soutient en 1935 sa thèse de médecine intitulée Avicenne, prince des médecins, sa vie et sa doctrine.
+Après sa participation à la bataille de France, il se réfugie en 1940 de nouveau à Gimont, où il écrit son journal de guerre J'étais médecin avec les chars. Il y commence également sa série Les Hommes en blanc, livre qui connaît un grand succès.
+Médecin à l'écoute de ses pairs, il fonde en 1952 l'Automobile club médical de France (ACMF), association destinée à protéger la qualité de vie des professionnels de santé.
 Il est également connu pour Le Journal d'une femme en blanc qui pose la question de société de l'avortement dans les années 1960, en décrivant sa réalité.
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Soubiran</t>
+          <t>André_Soubiran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l'époux de Giselle Soubiran, kinésithérapeute de formation qui a contribué, avec Julian de Ajuriaguerra, à l'institutionnalisation de la psychomotricité en France. Mort à Paris, il est inhumé à Gimont[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l'époux de Giselle Soubiran, kinésithérapeute de formation qui a contribué, avec Julian de Ajuriaguerra, à l'institutionnalisation de la psychomotricité en France. Mort à Paris, il est inhumé à Gimont.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Soubiran</t>
+          <t>André_Soubiran</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Larrey de l'Académie de médecine (1935)
 Croix de guerre 1939-1945
